--- a/AutomationONE/Data/KEEP_REFER.xlsx
+++ b/AutomationONE/Data/KEEP_REFER.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Saif\git\repository\DataDrivenTest\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadsaif/git/repository/AutomationONE/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5382CFE8-1C2F-437E-BB36-778F8AC60CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EA915F-6B7A-8B4D-8464-206A723AC535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,18 +25,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>KEY</t>
   </si>
   <si>
     <t>VALUE</t>
+  </si>
+  <si>
+    <t>Pandu</t>
+  </si>
+  <si>
+    <t>gandu</t>
+  </si>
+  <si>
+    <t>Landu</t>
+  </si>
+  <si>
+    <t>Randu</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,24 +400,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625"/>
+    <col min="2" max="2" customWidth="true" width="22.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
